--- a/descargas/cronograma.xlsx
+++ b/descargas/cronograma.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PONENCIA MAGISTRAL" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>HORA</t>
   </si>
@@ -260,9 +260,6 @@
   </si>
   <si>
     <t xml:space="preserve">PROGRAMACION - LABORATORIOS COLEGIO DE INGENIEROS </t>
-  </si>
-  <si>
-    <t>FORO SISTEMICO - AUDITORIO PRINCIPAL</t>
   </si>
   <si>
     <t>EXPOSICION GANADOR PROYECTOS</t>
@@ -423,7 +420,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -432,22 +432,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -459,22 +456,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -764,7 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
@@ -786,40 +783,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="11"/>
+      <c r="K1" s="12"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="12"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="11"/>
+      <c r="Q1" s="12"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -829,23 +826,23 @@
         <v>0.3125</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
       <c r="R2" s="3"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -856,23 +853,23 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -883,33 +880,33 @@
         <v>0.35416666666666702</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="10"/>
+      <c r="T4" s="9"/>
     </row>
     <row r="5" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -920,23 +917,23 @@
         <v>0.375</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
     </row>
     <row r="6" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -947,23 +944,23 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
     </row>
     <row r="7" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -974,23 +971,23 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
     </row>
     <row r="8" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1001,23 +998,23 @@
         <v>0.4375</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
     </row>
     <row r="9" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1028,29 +1025,29 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="6"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
     </row>
     <row r="10" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1061,23 +1058,23 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
     </row>
     <row r="11" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1088,23 +1085,23 @@
         <v>0.5</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
     </row>
     <row r="12" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1115,27 +1112,27 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="6"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="6" t="s">
+      <c r="P12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Q12" s="6"/>
+      <c r="Q12" s="7"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
     </row>
     <row r="13" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1146,23 +1143,23 @@
         <v>0.54166666666666596</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
     </row>
     <row r="14" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1173,23 +1170,23 @@
         <v>0.5625</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
     </row>
     <row r="15" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1200,23 +1197,23 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
     </row>
     <row r="16" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1232,20 +1229,20 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
     </row>
     <row r="17" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -1259,22 +1256,22 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -1288,26 +1285,26 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="5"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="6"/>
+      <c r="N18" s="7"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="7" t="s">
+      <c r="P18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q18" s="7"/>
+      <c r="Q18" s="11"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -1321,20 +1318,20 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
     </row>
     <row r="20" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1345,23 +1342,23 @@
         <v>0.6875</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
       <c r="R20" s="3"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1372,25 +1369,25 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -1401,25 +1398,25 @@
         <v>0.72916666666666596</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
       <c r="R22" s="3"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -1430,29 +1427,29 @@
         <v>0.75</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="5"/>
+      <c r="K23" s="6"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N23" s="6"/>
+      <c r="N23" s="7"/>
       <c r="O23" s="3"/>
       <c r="P23" s="8" t="s">
         <v>33</v>
       </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="3"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -1463,23 +1460,23 @@
         <v>0.77083333333333304</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
       <c r="O24" s="3"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -1490,25 +1487,25 @@
         <v>0.79166666666666596</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
       <c r="O25" s="3"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="3"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -1519,23 +1516,23 @@
         <v>0.8125</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
       <c r="O26" s="3"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="3"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1546,27 +1543,27 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="6"/>
+      <c r="H27" s="7"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="5"/>
+      <c r="K27" s="6"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
       <c r="O27" s="3"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="3"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -1577,25 +1574,25 @@
         <v>0.85416666666666596</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="4" t="s">
+      <c r="M28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="4"/>
+      <c r="N28" s="10"/>
       <c r="O28" s="3"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="3"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -1606,25 +1603,25 @@
         <v>0.875</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
       <c r="R29" s="3"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
     </row>
     <row r="30" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -1635,23 +1632,23 @@
         <v>0.89583333333333304</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
       <c r="R30" s="3"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -1662,23 +1659,23 @@
         <v>0.91666666666666596</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
       <c r="R31" s="3"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -1689,29 +1686,29 @@
         <v>0.937499999999999</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K32" s="9"/>
+      <c r="J32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="5"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="9" t="s">
+      <c r="P32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q32" s="9"/>
+      <c r="Q32" s="5"/>
       <c r="R32" s="3"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
     </row>
     <row r="33" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -1722,23 +1719,23 @@
         <v>0.95833333333333304</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
       <c r="R33" s="3"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
     </row>
     <row r="34" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -1749,23 +1746,23 @@
         <v>0.97916666666666596</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
       <c r="R34" s="3"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1776,23 +1773,23 @@
         <v>1</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
       <c r="R35" s="3"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
     </row>
     <row r="36" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -1803,23 +1800,23 @@
         <v>1.0208333333333399</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
       <c r="L36" s="3"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
       <c r="R36" s="3"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
     </row>
     <row r="37" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -1830,23 +1827,23 @@
         <v>1.0416666666666701</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
       <c r="R37" s="3"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
     </row>
     <row r="38" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1855,26 +1852,83 @@
     <row r="42" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="D32:E37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="J32:K37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="M28:N30"/>
+    <mergeCell ref="P4:Q7"/>
+    <mergeCell ref="P9:Q10"/>
+    <mergeCell ref="P12:Q15"/>
+    <mergeCell ref="P18:Q21"/>
+    <mergeCell ref="P23:Q28"/>
+    <mergeCell ref="P32:Q37"/>
+    <mergeCell ref="S4:T16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M4:N13"/>
+    <mergeCell ref="M18:N21"/>
+    <mergeCell ref="M23:N26"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D4:E13"/>
+    <mergeCell ref="G4:H7"/>
+    <mergeCell ref="G9:H12"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="D21:E23"/>
+    <mergeCell ref="J18:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="G17:H20"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="D16:E19"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="J31:K31"/>
@@ -1899,83 +1953,26 @@
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="S26:T26"/>
     <mergeCell ref="S25:T25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="D21:E23"/>
-    <mergeCell ref="J18:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="G17:H20"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="D16:E19"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D4:E13"/>
-    <mergeCell ref="G4:H7"/>
-    <mergeCell ref="G9:H12"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M28:N30"/>
-    <mergeCell ref="P4:Q7"/>
-    <mergeCell ref="P9:Q10"/>
-    <mergeCell ref="P12:Q15"/>
-    <mergeCell ref="P18:Q21"/>
-    <mergeCell ref="P23:Q28"/>
-    <mergeCell ref="P32:Q37"/>
-    <mergeCell ref="S4:T16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="M4:N13"/>
-    <mergeCell ref="M18:N21"/>
-    <mergeCell ref="M23:N26"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="D32:E37"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="J32:K37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="S32:T32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2008,42 +2005,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="11"/>
+      <c r="M1" s="12"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="11"/>
+      <c r="P1" s="12"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="11"/>
+      <c r="S1" s="12"/>
       <c r="T1" s="3"/>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="11"/>
+      <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -2053,25 +2050,25 @@
         <v>0.3125</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
     </row>
     <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -2082,25 +2079,25 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
     </row>
     <row r="4" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -2111,29 +2108,29 @@
         <v>0.35416666666666702</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="6"/>
+      <c r="M4" s="7"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="6"/>
+      <c r="S4" s="7"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
     </row>
     <row r="5" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -2144,25 +2141,25 @@
         <v>0.375</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
     </row>
     <row r="6" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -2173,25 +2170,25 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -2202,25 +2199,25 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
     </row>
     <row r="8" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -2231,25 +2228,25 @@
         <v>0.4375</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
     </row>
     <row r="9" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -2260,33 +2257,33 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="13" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="6"/>
+      <c r="M9" s="7"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S9" s="5"/>
+      <c r="S9" s="6"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
     </row>
     <row r="10" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -2297,25 +2294,25 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
     </row>
     <row r="11" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -2326,25 +2323,25 @@
         <v>0.5</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
     </row>
     <row r="12" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -2355,25 +2352,25 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="13"/>
       <c r="J12" s="14"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
     </row>
     <row r="13" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -2384,25 +2381,25 @@
         <v>0.54166666666666596</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
     </row>
     <row r="14" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -2413,27 +2410,27 @@
         <v>0.5625</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S14" s="5"/>
+      <c r="S14" s="6"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
     </row>
     <row r="15" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -2444,25 +2441,25 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
     </row>
     <row r="16" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -2473,25 +2470,25 @@
         <v>0.60416666666666596</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
     </row>
     <row r="17" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -2502,31 +2499,31 @@
         <v>0.625</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M17" s="5"/>
+      <c r="M17" s="6"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="5"/>
+      <c r="P17" s="6"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
     </row>
     <row r="18" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -2537,25 +2534,25 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
     </row>
     <row r="19" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -2566,25 +2563,25 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
     </row>
     <row r="20" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -2595,25 +2592,25 @@
         <v>0.6875</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
     </row>
     <row r="21" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -2624,25 +2621,25 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
     </row>
     <row r="22" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -2653,31 +2650,31 @@
         <v>0.72916666666666596</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="5"/>
+      <c r="M22" s="6"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="P22" s="5"/>
+      <c r="P22" s="6"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
     </row>
     <row r="23" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -2688,25 +2685,25 @@
         <v>0.75</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
     </row>
     <row r="24" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -2717,25 +2714,25 @@
         <v>0.77083333333333304</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
     </row>
     <row r="25" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -2746,25 +2743,25 @@
         <v>0.79166666666666596</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
     </row>
     <row r="26" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -2775,25 +2772,25 @@
         <v>0.8125</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
     </row>
     <row r="27" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -2804,31 +2801,31 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M27" s="5"/>
+      <c r="M27" s="6"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="6" t="s">
+      <c r="O27" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P27" s="6"/>
+      <c r="P27" s="7"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
     </row>
     <row r="28" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -2839,25 +2836,25 @@
         <v>0.85416666666666596</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
     </row>
     <row r="29" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -2868,25 +2865,25 @@
         <v>0.875</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
     </row>
     <row r="30" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -2897,25 +2894,25 @@
         <v>0.89583333333333304</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
     </row>
     <row r="31" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -2926,25 +2923,25 @@
         <v>0.91666666666666596</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
     </row>
     <row r="32" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -2955,25 +2952,25 @@
         <v>0.937499999999999</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
     </row>
     <row r="33" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -2984,25 +2981,25 @@
         <v>0.95833333333333304</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
     </row>
     <row r="34" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -3013,25 +3010,25 @@
         <v>0.97916666666666596</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
     </row>
     <row r="35" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -3042,25 +3039,25 @@
         <v>1</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
     </row>
     <row r="36" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -3071,25 +3068,25 @@
         <v>1.0208333333333399</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
       <c r="T36" s="3"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
     </row>
     <row r="37" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -3100,28 +3097,183 @@
         <v>1.0416666666666701</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
       <c r="T37" s="3"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="L27:M30"/>
+    <mergeCell ref="O27:P30"/>
+    <mergeCell ref="O22:P25"/>
+    <mergeCell ref="O17:P20"/>
+    <mergeCell ref="R4:S7"/>
+    <mergeCell ref="R9:S12"/>
+    <mergeCell ref="R14:S17"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="L9:M12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="L4:M7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="G17:J20"/>
+    <mergeCell ref="L17:M20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="G22:J25"/>
+    <mergeCell ref="L22:M25"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G27:J30"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G9:H12"/>
+    <mergeCell ref="I9:J12"/>
+    <mergeCell ref="L32:M32"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
@@ -3146,161 +3298,6 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G27:J30"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G9:H12"/>
-    <mergeCell ref="I9:J12"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="G22:J25"/>
-    <mergeCell ref="L22:M25"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="G17:J20"/>
-    <mergeCell ref="L17:M20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="L4:M7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="L27:M30"/>
-    <mergeCell ref="O27:P30"/>
-    <mergeCell ref="O22:P25"/>
-    <mergeCell ref="O17:P20"/>
-    <mergeCell ref="R4:S7"/>
-    <mergeCell ref="R9:S12"/>
-    <mergeCell ref="R14:S17"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="L9:M12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="U13:V13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3332,52 +3329,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
       <c r="T1" s="3"/>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="11"/>
+      <c r="AC1" s="12"/>
       <c r="AD1" s="3"/>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="11"/>
+      <c r="AF1" s="12"/>
     </row>
     <row r="2" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -3387,35 +3384,35 @@
         <v>0.3125</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
       <c r="AD2" s="3"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
     </row>
     <row r="3" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -3426,35 +3423,35 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
       <c r="AA3" s="3"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
       <c r="AD3" s="3"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
     </row>
     <row r="4" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -3465,15 +3462,15 @@
         <v>0.35416666666666702</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
       <c r="M4" s="3"/>
       <c r="N4" s="14" t="s">
         <v>57</v>
@@ -3488,20 +3485,20 @@
       </c>
       <c r="S4" s="15"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
       <c r="AA4" s="3"/>
-      <c r="AB4" s="5" t="s">
+      <c r="AB4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AC4" s="5"/>
+      <c r="AC4" s="6"/>
       <c r="AD4" s="3"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
     </row>
     <row r="5" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -3512,15 +3509,15 @@
         <v>0.375</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
       <c r="M5" s="3"/>
       <c r="N5" s="14"/>
       <c r="O5" s="15"/>
@@ -3529,18 +3526,18 @@
       <c r="R5" s="14"/>
       <c r="S5" s="15"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
       <c r="AD5" s="3"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
     </row>
     <row r="6" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -3551,15 +3548,15 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
       <c r="M6" s="3"/>
       <c r="N6" s="14"/>
       <c r="O6" s="15"/>
@@ -3568,18 +3565,18 @@
       <c r="R6" s="14"/>
       <c r="S6" s="15"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
       <c r="AA6" s="3"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
       <c r="AD6" s="3"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
     </row>
     <row r="7" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -3590,15 +3587,15 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="3"/>
       <c r="N7" s="14"/>
       <c r="O7" s="15"/>
@@ -3607,18 +3604,18 @@
       <c r="R7" s="14"/>
       <c r="S7" s="15"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
       <c r="AA7" s="3"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
       <c r="AD7" s="3"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
     </row>
     <row r="8" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -3629,35 +3626,35 @@
         <v>0.4375</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
       <c r="AA8" s="3"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
       <c r="AD8" s="3"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
     </row>
     <row r="9" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -3668,49 +3665,49 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="3"/>
       <c r="G9" s="14" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="15"/>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="17"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="13" t="s">
         <v>50</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
       <c r="R9" s="13" t="s">
         <v>59</v>
       </c>
       <c r="S9" s="15"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="5" t="s">
+      <c r="U9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
       <c r="AA9" s="3"/>
-      <c r="AB9" s="5" t="s">
+      <c r="AB9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AC9" s="5"/>
+      <c r="AC9" s="6"/>
       <c r="AD9" s="3"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
     </row>
     <row r="10" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -3721,35 +3718,35 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="3"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="13"/>
       <c r="L10" s="14"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
       <c r="R10" s="13"/>
       <c r="S10" s="15"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
       <c r="AA10" s="3"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
       <c r="AD10" s="3"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
     </row>
     <row r="11" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -3760,35 +3757,35 @@
         <v>0.5</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="3"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="13"/>
       <c r="L11" s="14"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
       <c r="R11" s="13"/>
       <c r="S11" s="15"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
       <c r="AD11" s="3"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
     </row>
     <row r="12" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -3799,35 +3796,35 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="3"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="13"/>
       <c r="L12" s="14"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
       <c r="R12" s="13"/>
       <c r="S12" s="15"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
       <c r="AA12" s="3"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
     </row>
     <row r="13" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -3838,35 +3835,35 @@
         <v>0.54166666666666596</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
       <c r="AA13" s="3"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
       <c r="AD13" s="3"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
     </row>
     <row r="14" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -3877,35 +3874,35 @@
         <v>0.5625</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
       <c r="AA14" s="3"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
       <c r="AD14" s="3"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
     </row>
     <row r="15" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -3916,35 +3913,35 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
       <c r="AA15" s="3"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
       <c r="AD15" s="3"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
     </row>
     <row r="16" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -3955,35 +3952,35 @@
         <v>0.60416666666666596</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
       <c r="AA16" s="3"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
       <c r="AD16" s="3"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
     </row>
     <row r="17" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -3994,13 +3991,13 @@
         <v>0.625</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="13" t="s">
         <v>55</v>
       </c>
@@ -4010,33 +4007,33 @@
       </c>
       <c r="L17" s="14"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
       <c r="R17" s="13" t="s">
         <v>61</v>
       </c>
       <c r="S17" s="15"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="5" t="s">
+      <c r="U17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
       <c r="X17" s="13" t="s">
         <v>67</v>
       </c>
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="3"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
       <c r="AD17" s="3"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
     </row>
     <row r="18" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -4047,37 +4044,37 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="13"/>
       <c r="J18" s="14"/>
       <c r="K18" s="13"/>
       <c r="L18" s="14"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
       <c r="R18" s="13"/>
       <c r="S18" s="15"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="3"/>
-      <c r="AB18" s="5" t="s">
+      <c r="AB18" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AC18" s="5"/>
+      <c r="AC18" s="6"/>
       <c r="AD18" s="3"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
     </row>
     <row r="19" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -4088,35 +4085,35 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="13"/>
       <c r="J19" s="14"/>
       <c r="K19" s="13"/>
       <c r="L19" s="14"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
       <c r="R19" s="13"/>
       <c r="S19" s="15"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="3"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
       <c r="AD19" s="3"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
     </row>
     <row r="20" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -4127,35 +4124,35 @@
         <v>0.6875</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="13"/>
       <c r="J20" s="14"/>
       <c r="K20" s="13"/>
       <c r="L20" s="14"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
       <c r="R20" s="13"/>
       <c r="S20" s="15"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="3"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
       <c r="AD20" s="3"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
     </row>
     <row r="21" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -4166,35 +4163,35 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
       <c r="AA21" s="3"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
       <c r="AD21" s="3"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
     </row>
     <row r="22" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -4205,17 +4202,17 @@
         <v>0.72916666666666596</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="3"/>
       <c r="G22" s="14" t="s">
         <v>51</v>
       </c>
       <c r="H22" s="15"/>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="5"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="13" t="s">
         <v>53</v>
       </c>
@@ -4229,10 +4226,10 @@
         <v>63</v>
       </c>
       <c r="Q22" s="15"/>
-      <c r="R22" s="18" t="s">
+      <c r="R22" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="S22" s="19"/>
+      <c r="S22" s="17"/>
       <c r="T22" s="3"/>
       <c r="U22" s="14" t="s">
         <v>70</v>
@@ -4247,11 +4244,11 @@
       </c>
       <c r="Z22" s="15"/>
       <c r="AA22" s="3"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
       <c r="AD22" s="3"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
     </row>
     <row r="23" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -4262,13 +4259,13 @@
         <v>0.75</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="3"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
       <c r="K23" s="13"/>
       <c r="L23" s="14"/>
       <c r="M23" s="3"/>
@@ -4276,8 +4273,8 @@
       <c r="O23" s="15"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="15"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="19"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="17"/>
       <c r="T23" s="3"/>
       <c r="U23" s="14"/>
       <c r="V23" s="15"/>
@@ -4286,11 +4283,11 @@
       <c r="Y23" s="14"/>
       <c r="Z23" s="15"/>
       <c r="AA23" s="3"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
       <c r="AD23" s="3"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
     </row>
     <row r="24" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -4301,13 +4298,13 @@
         <v>0.77083333333333304</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="3"/>
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="13"/>
       <c r="L24" s="14"/>
       <c r="M24" s="3"/>
@@ -4315,8 +4312,8 @@
       <c r="O24" s="15"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="15"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="19"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="17"/>
       <c r="T24" s="3"/>
       <c r="U24" s="14"/>
       <c r="V24" s="15"/>
@@ -4325,11 +4322,11 @@
       <c r="Y24" s="14"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="3"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
       <c r="AD24" s="3"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="12"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
     </row>
     <row r="25" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -4340,13 +4337,13 @@
         <v>0.79166666666666596</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="3"/>
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="13"/>
       <c r="L25" s="14"/>
       <c r="M25" s="3"/>
@@ -4354,8 +4351,8 @@
       <c r="O25" s="15"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="15"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="19"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="17"/>
       <c r="T25" s="3"/>
       <c r="U25" s="14"/>
       <c r="V25" s="15"/>
@@ -4364,11 +4361,11 @@
       <c r="Y25" s="14"/>
       <c r="Z25" s="15"/>
       <c r="AA25" s="3"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
       <c r="AD25" s="3"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
     </row>
     <row r="26" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -4379,35 +4376,35 @@
         <v>0.8125</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
       <c r="AA26" s="3"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
       <c r="AD26" s="3"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
     </row>
     <row r="27" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -4418,35 +4415,35 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
       <c r="AA27" s="3"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
       <c r="AD27" s="3"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
     </row>
     <row r="28" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -4457,35 +4454,35 @@
         <v>0.85416666666666596</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
       <c r="AA28" s="3"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
       <c r="AD28" s="3"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
     </row>
     <row r="29" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -4496,35 +4493,35 @@
         <v>0.875</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
       <c r="AA29" s="3"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
       <c r="AD29" s="3"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
     </row>
     <row r="30" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -4535,35 +4532,35 @@
         <v>0.89583333333333304</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
       <c r="AA30" s="3"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
       <c r="AD30" s="3"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
     </row>
     <row r="31" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -4574,35 +4571,35 @@
         <v>0.91666666666666596</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
       <c r="AA31" s="3"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
       <c r="AD31" s="3"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
     </row>
     <row r="32" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -4613,35 +4610,35 @@
         <v>0.937499999999999</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
       <c r="AA32" s="3"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
       <c r="AD32" s="3"/>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="12"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
     </row>
     <row r="33" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -4652,35 +4649,35 @@
         <v>0.95833333333333304</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
       <c r="AA33" s="3"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
       <c r="AD33" s="3"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
     </row>
     <row r="34" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -4691,35 +4688,35 @@
         <v>0.97916666666666596</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
       <c r="AA34" s="3"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
       <c r="AD34" s="3"/>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="12"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
     </row>
     <row r="35" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -4730,35 +4727,35 @@
         <v>1</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
       <c r="AA35" s="3"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="12"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
       <c r="AD35" s="3"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="12"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
     </row>
     <row r="36" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -4769,35 +4766,35 @@
         <v>1.0208333333333399</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
       <c r="T36" s="3"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
       <c r="AA36" s="3"/>
-      <c r="AB36" s="12"/>
-      <c r="AC36" s="12"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
       <c r="AD36" s="3"/>
-      <c r="AE36" s="12"/>
-      <c r="AF36" s="12"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
     </row>
     <row r="37" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -4808,111 +4805,140 @@
         <v>1.0416666666666701</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
       <c r="T37" s="3"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
       <c r="AA37" s="3"/>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="12"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
       <c r="AD37" s="3"/>
-      <c r="AE37" s="12"/>
-      <c r="AF37" s="12"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="199">
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:L37"/>
-    <mergeCell ref="N37:S37"/>
-    <mergeCell ref="U37:Z37"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:L36"/>
-    <mergeCell ref="N36:S36"/>
-    <mergeCell ref="U36:Z36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="N35:S35"/>
-    <mergeCell ref="U35:Z35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="N34:S34"/>
-    <mergeCell ref="U34:Z34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="U33:Z33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="N32:S32"/>
-    <mergeCell ref="U32:Z32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="N31:S31"/>
-    <mergeCell ref="U31:Z31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="N30:S30"/>
-    <mergeCell ref="U30:Z30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="N29:S29"/>
-    <mergeCell ref="U29:Z29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="N28:S28"/>
-    <mergeCell ref="U28:Z28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="N27:S27"/>
-    <mergeCell ref="U27:Z27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="U26:Z26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="G9:H12"/>
+    <mergeCell ref="I9:J12"/>
+    <mergeCell ref="K9:L12"/>
+    <mergeCell ref="N4:O7"/>
+    <mergeCell ref="P4:Q7"/>
+    <mergeCell ref="R4:S7"/>
+    <mergeCell ref="N9:Q12"/>
+    <mergeCell ref="R9:S12"/>
+    <mergeCell ref="U9:Z12"/>
+    <mergeCell ref="AB4:AC7"/>
+    <mergeCell ref="AB9:AC12"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="U3:Z3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="U2:Z2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="U5:Z5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="U4:Z4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="U7:Z7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="U6:Z6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="U8:Z8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="U13:Z13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="U15:Z15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="U14:Z14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="U16:Z16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="G17:H20"/>
+    <mergeCell ref="I17:J20"/>
+    <mergeCell ref="K17:L20"/>
+    <mergeCell ref="N17:Q20"/>
+    <mergeCell ref="R17:S20"/>
+    <mergeCell ref="U17:W20"/>
+    <mergeCell ref="X17:Z20"/>
+    <mergeCell ref="AB18:AC21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="N21:S21"/>
     <mergeCell ref="U21:Z21"/>
     <mergeCell ref="AE21:AF21"/>
     <mergeCell ref="D20:E20"/>
@@ -4937,108 +4963,79 @@
     <mergeCell ref="AE25:AF25"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="U16:Z16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="G17:H20"/>
-    <mergeCell ref="I17:J20"/>
-    <mergeCell ref="K17:L20"/>
-    <mergeCell ref="N17:Q20"/>
-    <mergeCell ref="R17:S20"/>
-    <mergeCell ref="U17:W20"/>
-    <mergeCell ref="X17:Z20"/>
-    <mergeCell ref="AB18:AC21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="U15:Z15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="N14:S14"/>
-    <mergeCell ref="U14:Z14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:S13"/>
-    <mergeCell ref="U13:Z13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="U7:Z7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="U6:Z6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="U8:Z8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="U2:Z2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="U5:Z5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="U4:Z4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="G9:H12"/>
-    <mergeCell ref="I9:J12"/>
-    <mergeCell ref="K9:L12"/>
-    <mergeCell ref="N4:O7"/>
-    <mergeCell ref="P4:Q7"/>
-    <mergeCell ref="R4:S7"/>
-    <mergeCell ref="N9:Q12"/>
-    <mergeCell ref="R9:S12"/>
-    <mergeCell ref="U9:Z12"/>
-    <mergeCell ref="AB4:AC7"/>
-    <mergeCell ref="AB9:AC12"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="U3:Z3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="N27:S27"/>
+    <mergeCell ref="U27:Z27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="U26:Z26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="U29:Z29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="N28:S28"/>
+    <mergeCell ref="U28:Z28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="N31:S31"/>
+    <mergeCell ref="U31:Z31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="N30:S30"/>
+    <mergeCell ref="U30:Z30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="U33:Z33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="N32:S32"/>
+    <mergeCell ref="U32:Z32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="N35:S35"/>
+    <mergeCell ref="U35:Z35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="N34:S34"/>
+    <mergeCell ref="U34:Z34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:L37"/>
+    <mergeCell ref="N37:S37"/>
+    <mergeCell ref="U37:Z37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="N36:S36"/>
+    <mergeCell ref="U36:Z36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AE36:AF36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5048,8 +5045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24:W24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5070,46 +5067,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
       <c r="U1" s="3"/>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="11"/>
+      <c r="W1" s="12"/>
       <c r="X1" s="3"/>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="11"/>
+      <c r="Z1" s="12"/>
     </row>
     <row r="2" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -5119,29 +5116,29 @@
         <v>0.3125</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
       <c r="X2" s="3"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -5152,29 +5149,29 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
       <c r="X3" s="3"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -5185,31 +5182,31 @@
         <v>0.35416666666666702</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="5" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
       <c r="X4" s="3"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -5220,29 +5217,29 @@
         <v>0.375</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
       <c r="X5" s="3"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -5253,29 +5250,29 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -5286,29 +5283,29 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -5319,29 +5316,29 @@
         <v>0.4375</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -5352,35 +5349,35 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -5391,29 +5388,29 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -5424,29 +5421,29 @@
         <v>0.5</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -5457,35 +5454,35 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="10" t="s">
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="O12" s="10"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="10" t="s">
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="T12" s="10"/>
+      <c r="T12" s="9"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="10" t="s">
+      <c r="V12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="W12" s="10"/>
+      <c r="W12" s="9"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -5496,29 +5493,29 @@
         <v>0.54166666666666596</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
       <c r="X13" s="3"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -5529,29 +5526,29 @@
         <v>0.5625</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -5562,29 +5559,29 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -5595,29 +5592,29 @@
         <v>0.60416666666666596</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
       <c r="X16" s="3"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -5628,29 +5625,29 @@
         <v>0.625</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
       <c r="X17" s="3"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -5661,29 +5658,29 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -5694,29 +5691,29 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
       <c r="X19" s="3"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
     </row>
     <row r="20" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -5727,29 +5724,29 @@
         <v>0.6875</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
       <c r="X20" s="3"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
     </row>
     <row r="21" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -5760,29 +5757,29 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
       <c r="X21" s="3"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
     </row>
     <row r="22" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -5793,29 +5790,29 @@
         <v>0.72916666666666596</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
       <c r="U22" s="3"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
       <c r="X22" s="3"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
     </row>
     <row r="23" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -5826,33 +5823,31 @@
         <v>0.75</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="5" t="s">
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="W23" s="5"/>
+      <c r="W23" s="6"/>
       <c r="X23" s="3"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
     </row>
     <row r="24" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -5863,29 +5858,29 @@
         <v>0.77083333333333304</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
       <c r="X24" s="3"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
     </row>
     <row r="25" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -5896,29 +5891,29 @@
         <v>0.79166666666666596</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
       <c r="X25" s="3"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
     </row>
     <row r="26" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -5929,29 +5924,29 @@
         <v>0.8125</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
       <c r="X26" s="3"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
     </row>
     <row r="27" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -5962,29 +5957,29 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
       <c r="U27" s="3"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
       <c r="X27" s="3"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
     </row>
     <row r="28" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -5995,29 +5990,29 @@
         <v>0.85416666666666596</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
       <c r="U28" s="3"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
       <c r="X28" s="3"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
     </row>
     <row r="29" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -6028,29 +6023,29 @@
         <v>0.875</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
       <c r="U29" s="3"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
       <c r="X29" s="3"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
     </row>
     <row r="30" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -6061,29 +6056,29 @@
         <v>0.89583333333333304</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
       <c r="U30" s="3"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
       <c r="X30" s="3"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
     </row>
     <row r="31" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -6094,29 +6089,29 @@
         <v>0.91666666666666596</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
       <c r="U31" s="3"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
       <c r="X31" s="3"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
     </row>
     <row r="32" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -6127,29 +6122,29 @@
         <v>0.937499999999999</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
       <c r="U32" s="3"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
       <c r="X32" s="3"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
     </row>
     <row r="33" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -6160,29 +6155,29 @@
         <v>0.95833333333333304</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
       <c r="U33" s="3"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
       <c r="X33" s="3"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
     </row>
     <row r="34" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -6193,29 +6188,29 @@
         <v>0.97916666666666596</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
       <c r="U34" s="3"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
       <c r="X34" s="3"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
     </row>
     <row r="35" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -6226,29 +6221,29 @@
         <v>1</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
       <c r="U35" s="3"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
       <c r="X35" s="3"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
     </row>
     <row r="36" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -6259,29 +6254,29 @@
         <v>1.0208333333333399</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
       <c r="U36" s="3"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
       <c r="X36" s="3"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
     </row>
     <row r="37" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -6292,199 +6287,58 @@
         <v>1.0416666666666701</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
       <c r="U37" s="3"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
       <c r="X37" s="3"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="215">
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="J35:O35"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="J34:O34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="J26:O26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Q23:T26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="J25:O25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
+  <mergeCells count="218">
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V12:W16"/>
+    <mergeCell ref="G9:H15"/>
+    <mergeCell ref="N12:O16"/>
+    <mergeCell ref="J9:K15"/>
+    <mergeCell ref="S12:T16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q9:R15"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="D2:E2"/>
@@ -6509,30 +6363,174 @@
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="L4:M13"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V12:W16"/>
-    <mergeCell ref="G9:H15"/>
-    <mergeCell ref="N12:O16"/>
-    <mergeCell ref="J9:K15"/>
-    <mergeCell ref="S12:T16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q9:R15"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="J26:O26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="J34:O34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="Y36:Z36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
